--- a/Linkedin App Test Cases.xlsx
+++ b/Linkedin App Test Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reham\Desktop\insta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KotbR\Desktop\insta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5565FF8-2242-4B96-921A-53C604227D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9210" windowHeight="4815"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>TC No.</t>
   </si>
@@ -77,38 +78,264 @@
     <t>Validate the app behavios as designed with in case of slepping mode</t>
   </si>
   <si>
-    <t>validate tha app can be installed with different networks (wifi/ data 4g,3g,2g)</t>
-  </si>
-  <si>
-    <t>validate the app behavios as desgined with different netwroks (wifi/ data 4g,3g,2g)</t>
-  </si>
-  <si>
-    <t>validate the app behavios as desgined when switches between networs (wifi/ data 4g,3g,2g)</t>
-  </si>
-  <si>
     <t>validate the app behavios as diesigned when there is no network</t>
   </si>
   <si>
     <t>validate the app with different OS types &amp; different versions</t>
   </si>
   <si>
-    <t>validate there is no interfere with other apps when in background</t>
-  </si>
-  <si>
-    <t>validate reloading data form remote service will no affect the proformance</t>
-  </si>
-  <si>
     <t>validate the user can save any image or file from the app locally</t>
   </si>
   <si>
-    <t>validate of the app stopped sudenlly , the user daye should be saved locally and avialble at startup</t>
+    <t>Pre-Conditions</t>
+  </si>
+  <si>
+    <t>Device connected to wifi or data</t>
+  </si>
+  <si>
+    <t>1- open App Store/play store
+2- search with LinkedIn App
+3- click on Install button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App should be Installed Succesully </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>App Installed succesfully</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete App from settings / Click &amp; hold on App to delete </t>
+  </si>
+  <si>
+    <t>App should be deleted successfully</t>
+  </si>
+  <si>
+    <t>App deleted successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open installed App 
+2- make a call / sms </t>
+  </si>
+  <si>
+    <t>app should be behave correctly</t>
+  </si>
+  <si>
+    <t>app should be behave correctly with inocming calls and sms</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>User can't receive a call while using App</t>
+  </si>
+  <si>
+    <t>App should be up &amp; running</t>
+  </si>
+  <si>
+    <t>App stopped with airplan mode</t>
+  </si>
+  <si>
+    <t>1- open installed App 
+2- click on airplane mode 
+3- open App again and scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open installed App 
+2- click on portrait orientation lock (on)
+3-open App again </t>
+  </si>
+  <si>
+    <t>View should be rotated correctly</t>
+  </si>
+  <si>
+    <t>Wrong view displayed when rotate Mobile</t>
+  </si>
+  <si>
+    <t>App working correctly with sleeping mode</t>
+  </si>
+  <si>
+    <t>1- open installed App 
+2- click GPS link inside App</t>
+  </si>
+  <si>
+    <t>GPS App should be opned and working correctly</t>
+  </si>
+  <si>
+    <t>GPS not loaded when opening GPS link</t>
+  </si>
+  <si>
+    <t>1- open installed App 
+2- receive notification from different apps</t>
+  </si>
+  <si>
+    <t>App working correctly when receive any notification</t>
+  </si>
+  <si>
+    <t>validate tha app can be installed with different networks (wifi/ data 4g,3g)</t>
+  </si>
+  <si>
+    <t>validate the app behavios as desgined with different netwroks (wifi/ data 4g,3g)</t>
+  </si>
+  <si>
+    <t>validate the app behavios as desgined when switches between networs (wifi/ data 4g,3g)</t>
+  </si>
+  <si>
+    <t>App should be installed with all type of netwoks</t>
+  </si>
+  <si>
+    <t>App installed successfully with all type of networks</t>
+  </si>
+  <si>
+    <t>Device with wifi only / Device with 4G/ Device with 3G</t>
+  </si>
+  <si>
+    <t>1- open App Store/play store
+2- Install App with wifi only
+3- Install App with 4g network
+4- install App with 3G network</t>
+  </si>
+  <si>
+    <t>1- open installed App
+2- open App with wifi only
+3- open App with 4g network
+4- open App with 3G network</t>
+  </si>
+  <si>
+    <t>Device with wifi &amp; 4G / Device with wifi &amp; 3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open installed App
+2- Switch between Wifi &amp;4G
+3- switch between wifi &amp; 3G </t>
+  </si>
+  <si>
+    <t>App should be working successfully</t>
+  </si>
+  <si>
+    <t>App working correctly when switch between networs</t>
+  </si>
+  <si>
+    <t>App not working when there is no network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disconnect network </t>
+  </si>
+  <si>
+    <t>1- Disconnect network
+2- open installed App</t>
+  </si>
+  <si>
+    <t>App shouldn't work when there is no network</t>
+  </si>
+  <si>
+    <t>Device with ios
+Device with Andriod</t>
+  </si>
+  <si>
+    <t>1- open App on IOS OS
+2- open App with Andriod OS</t>
+  </si>
+  <si>
+    <t>1- open installed App
+2- open any Image from App
+3- save the image</t>
+  </si>
+  <si>
+    <t>Image should be saved correctlly</t>
+  </si>
+  <si>
+    <t>user couldn't save any image from App</t>
+  </si>
+  <si>
+    <t>validate of the app stopped sudenlly , the user data should be saved locally and avialble at startup</t>
+  </si>
+  <si>
+    <t>validate there is no interfere with other apps in background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open Linked App
+2- open other apps with linked </t>
+  </si>
+  <si>
+    <t>LinkedIn App should ne working correctly</t>
+  </si>
+  <si>
+    <t>App working corrcetly</t>
+  </si>
+  <si>
+    <t>validate reloading data form remote service will no affect the preformance</t>
+  </si>
+  <si>
+    <t>1- open installed App
+2- refresh App &amp; reload data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App should be working as designed </t>
+  </si>
+  <si>
+    <t>Performance working (as designed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open App 
+2- close App (playing in backgroung)&amp; reopen </t>
+  </si>
+  <si>
+    <t>Data should be saved locally</t>
+  </si>
+  <si>
+    <t>data saved correctly</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Validate specs of Application name (Font &amp; Coloer,..</t>
+  </si>
+  <si>
+    <t>App specs should be dislpayed as diesgned</t>
+  </si>
+  <si>
+    <t>Wrong App Name</t>
+  </si>
+  <si>
+    <t>App crash when open notification with 3G network</t>
+  </si>
+  <si>
+    <t>App should be working with all type of netwoks</t>
+  </si>
+  <si>
+    <t>App working as desgined with different OS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +358,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,13 +401,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,167 +706,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1">
-      <c r="B4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1">
-      <c r="B5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="B6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" t="s">
-        <v>25</v>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K000000C2 General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>